--- a/OUTPUT/240819rectangle1_output.xlsx
+++ b/OUTPUT/240819rectangle1_output.xlsx
@@ -446,14 +446,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.381574392318726</v>
+        <v>3.553999662399292</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[(2, 1), (3, 4), (3, 6), (4, 5), (5, 5), (5, 7), (6, 2), (6, 6), (7, 2), (7, 3), (7, 5)]</t>
+          <t>[(3, 0), (3, 6), (3, 7), (3, 8), (4, 2), (4, 3), (4, 5), (5, 0), (5, 1), (5, 4), (6, 0), (6, 2), (6, 3), (6, 4), (7, 2), (7, 3), (7, 6), (7, 7)]</t>
         </is>
       </c>
     </row>

--- a/OUTPUT/240819rectangle1_output.xlsx
+++ b/OUTPUT/240819rectangle1_output.xlsx
@@ -446,14 +446,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.553999662399292</v>
+        <v>3.246849060058594</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[(3, 0), (3, 6), (3, 7), (3, 8), (4, 2), (4, 3), (4, 5), (5, 0), (5, 1), (5, 4), (6, 0), (6, 2), (6, 3), (6, 4), (7, 2), (7, 3), (7, 6), (7, 7)]</t>
+          <t>[(3, 0), (3, 1), (3, 8), (4, 1), (4, 4), (4, 5), (4, 7), (5, 0), (5, 5), (5, 7), (6, 2), (6, 5), (7, 4), (8, 1)]</t>
         </is>
       </c>
     </row>

--- a/OUTPUT/240819rectangle1_output.xlsx
+++ b/OUTPUT/240819rectangle1_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,27 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.246849060058594</v>
+        <v>55.00622725486755</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[(3, 0), (3, 1), (3, 8), (4, 1), (4, 4), (4, 5), (4, 7), (5, 0), (5, 5), (5, 7), (6, 2), (6, 5), (7, 4), (8, 1)]</t>
+          <t>[(0, 1), (1, 4), (1, 8), (3, 5), (3, 6), (3, 9), (3, 12), (3, 14), (4, 0), (4, 1), (4, 5), (4, 7), (4, 8), (4, 9), (4, 10), (4, 13), (5, 0), (5, 3), (5, 4), (5, 6), (5, 7), (5, 10), (5, 11), (6, 4), (6, 7), (6, 8), (6, 10), (7, 4), (7, 6), (7, 8), (7, 9), (7, 10), (8, 2), (8, 3), (8, 5), (8, 8), (8, 10), (9, 1), (9, 4), (9, 5), (9, 9), (9, 10), (9, 14), (10, 2), (10, 8), (10, 11), (10, 12), (10, 13), (11, 0), (11, 9), (11, 12), (12, 1), (12, 4), (12, 6), (12, 7), (12, 8), (12, 9), (12, 14), (13, 1), (13, 4), (13, 9), (13, 11), (13, 14), (14, 1)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>18.87092018127441</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[(2, 4), (3, 0), (3, 8), (3, 11), (3, 12), (3, 13), (4, 3), (4, 4), (4, 8), (4, 13), (4, 14), (5, 3), (5, 8), (5, 9), (5, 12), (5, 13), (6, 0), (6, 2), (6, 4), (6, 5), (6, 7), (6, 9), (6, 10), (6, 11), (7, 1), (7, 6), (7, 7), (7, 8), (7, 10), (7, 11), (8, 4), (8, 13), (9, 1), (9, 2), (9, 4), (9, 14), (10, 0), (10, 1), (10, 5), (10, 7), (10, 8), (10, 9), (10, 11), (10, 12), (10, 13), (11, 0), (11, 1), (11, 4), (11, 8), (11, 12), (11, 13), (12, 0), (12, 7), (12, 8), (12, 9), (12, 10), (13, 1), (13, 12), (14, 1), (14, 3), (14, 10), (14, 13)]</t>
         </is>
       </c>
     </row>
